--- a/RMIS/wwwroot/kml/測試上傳_綠地.xlsx
+++ b/RMIS/wwwroot/kml/測試上傳_綠地.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingSu\Documents\RMIS\RMIS\wwwroot\kml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE700D86-EE45-4DA5-B9FA-D391044066E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B87C5A5-1AD7-41F4-871A-133CD8C2A50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="16560" windowHeight="13395" xr2:uid="{99828AEE-F931-44E8-8951-218FE93A33DE}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="16560" windowHeight="13395" xr2:uid="{99828AEE-F931-44E8-8951-218FE93A33DE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -83,15 +83,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "OBJECTID": 5462, "全市編號": "Park_0112", "行政區編號": "PT335_0008", "公園名稱": "大溪第八公墓公園", "行政區": "大溪", "里": "仁文里", "開闢年度": 0, "大小分類": "大型公園", "公園分類": "一般公園", "維管單位": "大溪區公所", "座落位置": "介壽路與公園路交接口", "備註": " ", "分區類別": "都市計畫區", "Shape.STArea()": 0.729604465, "Shape.STLength()": 21.576925158622128, "UNIT": "HC", "鄉鎮市區": "02大溪區", "段號": 568, "段名": "仁文段", "段小段": "0568仁文段", "地號": 711, "子地號": 0, "Fid_key": "t056807110000", "都市計畫": "變更大溪鎮(埔頂地區)細部計畫(第一次通盤檢討)案", "都計用地": "第一種住宅區", "使用分區": null, "使用地": null, "公私別": "私", "取得方式": " ", "取得單位": " ", "地籍面積": 0.72947299 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{ "OBJECTID": 5485, "全市編號": "Park_0116", "行政區編號": "PT335_0012", "公園名稱": "埔頂公園(2)", "行政區": "大溪", "里": "仁善里", "開闢年度": 0, "大小分類": "大型公園", "公園分類": "一般公園", "維管單位": "大溪區公所", "座落位置": "公園路、仁善街", "備註": " ", "分區類別": "都市計畫區", "Shape.STArea()": 224.9858, "Shape.STLength()": 59.99810663679313, "UNIT": "HC", "鄉鎮市區": "02大溪區", "段號": 498, "段名": "仁善段", "段小段": "0498仁善段", "地號": 630, "子地號": 0, "Fid_key": "t049806300000", "都市計畫": "「擬定大溪（埔頂地區）主要計畫」案", "都計用地": "公園用地", "使用分區": null, "使用地": null, "公私別": "公", "取得方式": "徵收", "取得單位": " ", "地籍面積": 224.98599243 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pile_dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "OBJECTID": 5462, "全市編號": "Park_0112", "行政區編號": "PT335_0008", "公園名稱": "大溪第八公墓公園", "行政區": "大溪", "里": "仁文里", "開闢年度": 0, "大小分類": "大型公園", "公園分類": "一般公園", "維管單位": "大溪區公所", "座落位置": "介壽路與公園路交接口", "備註": " ", "分區類別": "都市計畫區", "Shape.STArea()": 0.729604465, "Shape.STLength()": 21.576925158622128, "UNIT": "HC", "鄉鎮市區": "02大溪區", "段號": 568, "段名": "仁文段", "段小段": "0568仁文段", "地號": 711, "子地號": 0, "Fid_key": "t056807110000", "都市計畫": "變更大溪鎮(埔頂地區)細部計畫(第一次通盤檢討)案", "都計用地": "第一種住宅區", "使用分區": null, "使用地": null, "公私別": "私", "取得方式": " ", "取得單位": " ", "地籍面積": 0.72947299 ,"管線(綠)":{"test1":["24.960409,121.300503","24.961409,121.300503","24.962409,121.300503"]}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0745AA-8D90-4F90-8E26-C34F79311A5B}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="363" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1268</v>
       </c>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">

--- a/RMIS/wwwroot/kml/測試上傳_綠地.xlsx
+++ b/RMIS/wwwroot/kml/測試上傳_綠地.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingSu\Documents\RMIS\RMIS\wwwroot\kml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B87C5A5-1AD7-41F4-871A-133CD8C2A50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DAE252-197D-446E-93C5-AFC989289E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="16560" windowHeight="13395" xr2:uid="{99828AEE-F931-44E8-8951-218FE93A33DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99828AEE-F931-44E8-8951-218FE93A33DE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>桃園市</t>
   </si>
   <si>
-    <t>八德區</t>
-  </si>
-  <si>
     <t>忠誠街</t>
   </si>
   <si>
@@ -92,6 +89,10 @@
   </si>
   <si>
     <t>{ "OBJECTID": 5462, "全市編號": "Park_0112", "行政區編號": "PT335_0008", "公園名稱": "大溪第八公墓公園", "行政區": "大溪", "里": "仁文里", "開闢年度": 0, "大小分類": "大型公園", "公園分類": "一般公園", "維管單位": "大溪區公所", "座落位置": "介壽路與公園路交接口", "備註": " ", "分區類別": "都市計畫區", "Shape.STArea()": 0.729604465, "Shape.STLength()": 21.576925158622128, "UNIT": "HC", "鄉鎮市區": "02大溪區", "段號": 568, "段名": "仁文段", "段小段": "0568仁文段", "地號": 711, "子地號": 0, "Fid_key": "t056807110000", "都市計畫": "變更大溪鎮(埔頂地區)細部計畫(第一次通盤檢討)案", "都計用地": "第一種住宅區", "使用分區": null, "使用地": null, "公私別": "私", "取得方式": " ", "取得單位": " ", "地籍面積": 0.72947299 ,"管線(綠)":{"test1":["24.960409,121.300503","24.961409,121.300503","24.962409,121.300503"]}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘆竹區</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0745AA-8D90-4F90-8E26-C34F79311A5B}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -481,10 +482,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -499,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
@@ -522,10 +523,10 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
       <c r="G2">
         <v>148611</v>
@@ -543,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -560,10 +561,10 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
       <c r="G3">
         <v>148612</v>
@@ -595,10 +596,10 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
       <c r="G4">
         <v>148613</v>
@@ -630,10 +631,10 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
       </c>
       <c r="G5">
         <v>148614</v>
@@ -665,10 +666,10 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
       </c>
       <c r="G6">
         <v>148615</v>
@@ -700,10 +701,10 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
         <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
       </c>
       <c r="G7">
         <v>148616</v>
@@ -735,10 +736,10 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>149071</v>
@@ -756,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -773,10 +774,10 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>149072</v>
@@ -808,10 +809,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>149073</v>
@@ -843,10 +844,10 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>149074</v>
@@ -878,10 +879,10 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>149075</v>
@@ -913,10 +914,10 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>149076</v>
@@ -948,10 +949,10 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>149077</v>
@@ -983,10 +984,10 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15">
         <v>149078</v>
@@ -1018,10 +1019,10 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>149079</v>
@@ -1053,10 +1054,10 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17">
         <v>149080</v>
@@ -1088,10 +1089,10 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18">
         <v>149081</v>
@@ -1123,10 +1124,10 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>149082</v>
@@ -1158,10 +1159,10 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20">
         <v>149083</v>
@@ -1193,10 +1194,10 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>149084</v>
@@ -1228,10 +1229,10 @@
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>149085</v>
@@ -1263,10 +1264,10 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23">
         <v>149086</v>
@@ -1298,10 +1299,10 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24">
         <v>149087</v>
@@ -1333,10 +1334,10 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>149088</v>
@@ -1368,10 +1369,10 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26">
         <v>149089</v>
@@ -1403,10 +1404,10 @@
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27">
         <v>149090</v>
@@ -1438,10 +1439,10 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>149091</v>
@@ -1473,10 +1474,10 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29">
         <v>149092</v>
@@ -1508,10 +1509,10 @@
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>149093</v>
@@ -1543,10 +1544,10 @@
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31">
         <v>149094</v>
@@ -1578,10 +1579,10 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32">
         <v>149095</v>
@@ -1613,10 +1614,10 @@
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33">
         <v>149096</v>
@@ -1648,10 +1649,10 @@
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34">
         <v>149097</v>
